--- a/biology/Histoire de la zoologie et de la botanique/Ludwig_Carl_Christian_Koch/Ludwig_Carl_Christian_Koch.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Ludwig_Carl_Christian_Koch/Ludwig_Carl_Christian_Koch.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ludwig Carl Christian Koch est un médecin et un arachnologiste bavarois, né le 8 novembre 1825 à Ratisbonne et mort le 1er novembre 1908 à Nuremberg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, Carl Ludwig Koch (1778-1857), naturaliste allemand, lui inculque de bonne heure le goût de l'étude de la nature. Il entame cependant des études de droit avant de s'orienter vers la médecine. Il obtient son titre de docteur à Nuremberg en 1851. C'est dans cette ville qu'il s'installe.
 Il est l'auteur de nombreux travaux d'arachnologie sur la faune d'Europe, de Sibérie et d'Australie. Devenu presqu'aveugle, il confie son manuscrit sur les araignées d'Australie au comte Eugen von Keyserling (1833-1889).
